--- a/docs/PPG/CEP.xlsx
+++ b/docs/PPG/CEP.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E05143E-6538-1D4F-A3B2-F39FD99D12B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D27D7E-4147-5D49-B9BF-2782824FEC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vigentes" sheetId="1" r:id="rId1"/>
-    <sheet name="Revogados" sheetId="2" r:id="rId2"/>
+    <sheet name="CEP" sheetId="3" r:id="rId1"/>
+    <sheet name="Vigentes" sheetId="1" r:id="rId2"/>
+    <sheet name="Revogados" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Publicação</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1UXe_oTMXCdGVrwOv8JPKqKoGo5nLeP5-</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/pesquisa-e-inovacao/</t>
   </si>
 </sst>
 </file>
@@ -510,10 +517,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367E97D-F0BA-2542-9952-750D3F1E198F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0E8D5BD6-4C07-2841-9418-B9A4D7292F50}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -579,7 +615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
   <dimension ref="A1:C13"/>
   <sheetViews>
